--- a/formatos/primer_semestre.xlsx
+++ b/formatos/primer_semestre.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DOCUMENTOS CSEIIO\PARA SISE\PLANTILLA PARA SUBIR CALIFICACIONES\PARA PLANTILLA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B16363-39DA-4DDD-8DAA-DE91B842640C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325D6FAC-B34F-429B-8A88-54A1BF298CB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="341">
   <si>
     <t>SEMESTRE</t>
   </si>
@@ -1043,6 +1043,18 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>TIENE_MATRICULA</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>¿TIENE MATRÍCULA?</t>
   </si>
 </sst>
 </file>
@@ -1106,7 +1118,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -1555,11 +1567,99 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1640,9 +1740,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1692,12 +1789,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1777,6 +1868,33 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2098,7 +2216,7 @@
       <pane xSplit="2" ySplit="14" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2118,17 +2236,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45"/>
-      <c r="B1" s="45"/>
+      <c r="A1" s="42"/>
+      <c r="B1" s="42"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>263</v>
       </c>
       <c r="B2" s="9"/>
     </row>
     <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="37" t="s">
         <v>333</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -2136,7 +2254,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="33" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -2144,7 +2262,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="33" t="s">
         <v>264</v>
       </c>
       <c r="B5" s="8">
@@ -2152,137 +2270,143 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="34" t="s">
         <v>265</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="42"/>
+    </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="60" t="s">
         <v>266</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="62" t="s">
         <v>267</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
+      <c r="C8" s="67" t="s">
+        <v>340</v>
+      </c>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="61"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
     </row>
     <row r="10" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="72" t="s">
+        <v>338</v>
+      </c>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="58" t="s">
         <v>319</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="64" t="s">
         <v>268</v>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="46" t="s">
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="43" t="s">
         <v>269</v>
       </c>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="49"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="46"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="62"/>
-      <c r="B13" s="59" t="s">
+      <c r="A13" s="59"/>
+      <c r="B13" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="52" t="s">
         <v>270</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="52" t="s">
         <v>271</v>
       </c>
-      <c r="E13" s="55" t="s">
+      <c r="E13" s="52" t="s">
         <v>272</v>
       </c>
-      <c r="F13" s="55" t="s">
+      <c r="F13" s="52" t="s">
         <v>273</v>
       </c>
-      <c r="G13" s="55" t="s">
+      <c r="G13" s="52" t="s">
         <v>274</v>
       </c>
-      <c r="H13" s="57" t="s">
+      <c r="H13" s="54" t="s">
         <v>275</v>
       </c>
-      <c r="I13" s="53" t="s">
+      <c r="I13" s="50" t="s">
         <v>276</v>
       </c>
-      <c r="J13" s="50" t="s">
+      <c r="J13" s="47" t="s">
         <v>300</v>
       </c>
-      <c r="K13" s="51"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="53" t="s">
+      <c r="K13" s="48"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="50" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="62"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="30" t="s">
+      <c r="A14" s="59"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="K14" s="31" t="s">
+      <c r="K14" s="30" t="s">
         <v>302</v>
       </c>
-      <c r="L14" s="32" t="s">
+      <c r="L14" s="31" t="s">
         <v>303</v>
       </c>
-      <c r="M14" s="54"/>
+      <c r="M14" s="51"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="27" t="s">
         <v>306</v>
       </c>
       <c r="B15" s="23" t="s">
@@ -2292,10 +2416,10 @@
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="13" t="str">
-        <f>IF($E15="","",IF($C$10="",IF(SUM($C15:$E15)/3&lt;6,5,ROUND(SUM($C15:$E15)/3,0)),"/"))</f>
+        <f>IF($E15="","",IF($C$7="",IF(SUM($C15:$E15)/3&lt;6,5,ROUND(SUM($C15:$E15)/3,0)),"/"))</f>
         <v/>
       </c>
-      <c r="G15" s="39" t="str">
+      <c r="G15" s="38" t="str">
         <f t="shared" ref="G15:G27" si="0">IF($F15&lt;=5,"/","")</f>
         <v/>
       </c>
@@ -2310,7 +2434,7 @@
       <c r="M15" s="19"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="27" t="s">
         <v>307</v>
       </c>
       <c r="B16" s="23" t="s">
@@ -2320,15 +2444,15 @@
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="13" t="str">
-        <f t="shared" ref="F16:F27" si="1">IF($E16="","",IF($C$10="",IF(SUM($C16:$E16)/3&lt;6,5,ROUND(SUM($C16:$E16)/3,0)),"/"))</f>
+        <f>IF($E16="","",IF($C$7="",IF(SUM($C16:$E16)/3&lt;6,5,ROUND(SUM($C16:$E16)/3,0)),"/"))</f>
         <v/>
       </c>
-      <c r="G16" s="39" t="str">
+      <c r="G16" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H16" s="14" t="str">
-        <f t="shared" ref="H16:H27" si="2">IF($G16="","",IF($F16="/","/",IF($F16=5,5,IF($G16="/",5,IF(SUM($F16:$G16)/2&lt;6,5,ROUND(SUM($F16:$G16)/2,0))))))</f>
+        <f t="shared" ref="H16:H27" si="1">IF($G16="","",IF($F16="/","/",IF($F16=5,5,IF($G16="/",5,IF(SUM($F16:$G16)/2&lt;6,5,ROUND(SUM($F16:$G16)/2,0))))))</f>
         <v/>
       </c>
       <c r="I16" s="21"/>
@@ -2338,7 +2462,7 @@
       <c r="M16" s="19"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="27" t="s">
         <v>308</v>
       </c>
       <c r="B17" s="23" t="s">
@@ -2348,15 +2472,15 @@
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($E17="","",IF($C$7="",IF(SUM($C17:$E17)/3&lt;6,5,ROUND(SUM($C17:$E17)/3,0)),"/"))</f>
         <v/>
       </c>
-      <c r="G17" s="39" t="str">
+      <c r="G17" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H17" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I17" s="21"/>
@@ -2366,7 +2490,7 @@
       <c r="M17" s="19"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="27" t="s">
         <v>309</v>
       </c>
       <c r="B18" s="23" t="s">
@@ -2376,15 +2500,15 @@
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($E18="","",IF($C$7="",IF(SUM($C18:$E18)/3&lt;6,5,ROUND(SUM($C18:$E18)/3,0)),"/"))</f>
         <v/>
       </c>
-      <c r="G18" s="39" t="str">
+      <c r="G18" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H18" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I18" s="21"/>
@@ -2394,7 +2518,7 @@
       <c r="M18" s="19"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="27" t="s">
         <v>310</v>
       </c>
       <c r="B19" s="23" t="s">
@@ -2404,15 +2528,15 @@
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($E19="","",IF($C$7="",IF(SUM($C19:$E19)/3&lt;6,5,ROUND(SUM($C19:$E19)/3,0)),"/"))</f>
         <v/>
       </c>
-      <c r="G19" s="39" t="str">
+      <c r="G19" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H19" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I19" s="21"/>
@@ -2422,7 +2546,7 @@
       <c r="M19" s="19"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="27" t="s">
         <v>311</v>
       </c>
       <c r="B20" s="23" t="s">
@@ -2432,15 +2556,15 @@
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($E20="","",IF($C$7="",IF(SUM($C20:$E20)/3&lt;6,5,ROUND(SUM($C20:$E20)/3,0)),"/"))</f>
         <v/>
       </c>
-      <c r="G20" s="39" t="str">
+      <c r="G20" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H20" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I20" s="21"/>
@@ -2450,7 +2574,7 @@
       <c r="M20" s="19"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="27" t="s">
         <v>312</v>
       </c>
       <c r="B21" s="23" t="s">
@@ -2460,15 +2584,15 @@
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($E21="","",IF($C$7="",IF(SUM($C21:$E21)/3&lt;6,5,ROUND(SUM($C21:$E21)/3,0)),"/"))</f>
         <v/>
       </c>
-      <c r="G21" s="39" t="str">
+      <c r="G21" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H21" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I21" s="21"/>
@@ -2478,7 +2602,7 @@
       <c r="M21" s="19"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="27" t="s">
         <v>313</v>
       </c>
       <c r="B22" s="23" t="s">
@@ -2488,15 +2612,15 @@
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($E22="","",IF($C$7="",IF(SUM($C22:$E22)/3&lt;6,5,ROUND(SUM($C22:$E22)/3,0)),"/"))</f>
         <v/>
       </c>
-      <c r="G22" s="39" t="str">
+      <c r="G22" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H22" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I22" s="21"/>
@@ -2506,7 +2630,7 @@
       <c r="M22" s="19"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="27" t="s">
         <v>314</v>
       </c>
       <c r="B23" s="23" t="s">
@@ -2516,15 +2640,15 @@
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($E23="","",IF($C$7="",IF(SUM($C23:$E23)/3&lt;6,5,ROUND(SUM($C23:$E23)/3,0)),"/"))</f>
         <v/>
       </c>
-      <c r="G23" s="39" t="str">
+      <c r="G23" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H23" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I23" s="21"/>
@@ -2534,7 +2658,7 @@
       <c r="M23" s="19"/>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="27" t="s">
         <v>315</v>
       </c>
       <c r="B24" s="23" t="s">
@@ -2544,15 +2668,15 @@
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($E24="","",IF($C$7="",IF(SUM($C24:$E24)/3&lt;6,5,ROUND(SUM($C24:$E24)/3,0)),"/"))</f>
         <v/>
       </c>
-      <c r="G24" s="39" t="str">
+      <c r="G24" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H24" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I24" s="21"/>
@@ -2562,7 +2686,7 @@
       <c r="M24" s="19"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="27" t="s">
         <v>316</v>
       </c>
       <c r="B25" s="23" t="s">
@@ -2572,15 +2696,15 @@
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($E25="","",IF($C$7="",IF(SUM($C25:$E25)/3&lt;6,5,ROUND(SUM($C25:$E25)/3,0)),"/"))</f>
         <v/>
       </c>
-      <c r="G25" s="39" t="str">
+      <c r="G25" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H25" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I25" s="21"/>
@@ -2590,7 +2714,7 @@
       <c r="M25" s="19"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="27" t="s">
         <v>317</v>
       </c>
       <c r="B26" s="23" t="s">
@@ -2600,15 +2724,15 @@
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($E26="","",IF($C$7="",IF(SUM($C26:$E26)/3&lt;6,5,ROUND(SUM($C26:$E26)/3,0)),"/"))</f>
         <v/>
       </c>
-      <c r="G26" s="39" t="str">
+      <c r="G26" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H26" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I26" s="21"/>
@@ -2618,41 +2742,43 @@
       <c r="M26" s="19"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="28" t="s">
         <v>318</v>
       </c>
       <c r="B27" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="25" t="str">
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="13" t="str">
+        <f>IF($E27="","",IF($C$7="",IF(SUM($C27:$E27)/3&lt;6,5,ROUND(SUM($C27:$E27)/3,0)),"/"))</f>
+        <v/>
+      </c>
+      <c r="G27" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H27" s="25" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G27" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H27" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
       <c r="I27" s="22"/>
-      <c r="J27" s="36"/>
+      <c r="J27" s="35"/>
       <c r="K27" s="16"/>
       <c r="L27" s="18"/>
       <c r="M27" s="20"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TL3urL39l77Po4uUNvgRHUSYu1dhAqP/Yk1E0fuLNM8eIk4NsQsajNaHq8lXVl2LbQrfY10mRfNDuZLRnNR8JQ==" saltValue="AdlRUWTxth1/+clep1dbAQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="15">
+  <sheetProtection algorithmName="SHA-512" hashValue="FoA9984b8E2pxnas7yoBpwJvKy3z0VuIFkzbtdCLGX94Qt6YwZSXH0QZb0a9+VoRrO8AoubitdNIOlAICnNnMA==" saltValue="Pt9Gvd0dkItXA+EyqBSQzw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="17">
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B12:H12"/>
+    <mergeCell ref="C8:F9"/>
+    <mergeCell ref="C10:F10"/>
     <mergeCell ref="I12:M12"/>
     <mergeCell ref="J13:L13"/>
     <mergeCell ref="I13:I14"/>
@@ -2668,7 +2794,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="10">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>CATALOGOS!$C$2:$C$49</xm:f>
@@ -2723,6 +2849,12 @@
           </x14:formula1>
           <xm:sqref>K10</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1B2A07CC-5F10-4B3E-8061-8640BCFA6177}">
+          <x14:formula1>
+            <xm:f>CATALOGOS!$O$2:$O$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>C10:F10</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -2731,10 +2863,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N121"/>
+  <dimension ref="A1:O121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2750,9 +2882,10 @@
     <col min="10" max="10" width="71.28515625" customWidth="1"/>
     <col min="12" max="12" width="7.28515625" customWidth="1"/>
     <col min="13" max="13" width="6.42578125" customWidth="1"/>
+    <col min="15" max="15" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2795,8 +2928,11 @@
       <c r="N1" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2839,8 +2975,11 @@
       <c r="N2" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2883,8 +3022,11 @@
       <c r="N3" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2922,7 +3064,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2960,7 +3102,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2989,7 +3131,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3018,7 +3160,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="s">
         <v>35</v>
       </c>
@@ -3044,7 +3186,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
         <v>38</v>
       </c>
@@ -3067,7 +3209,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C10" s="4" t="s">
         <v>41</v>
       </c>
@@ -3090,7 +3232,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C11" s="4" t="s">
         <v>44</v>
       </c>
@@ -3113,7 +3255,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C12" s="4" t="s">
         <v>47</v>
       </c>
@@ -3136,7 +3278,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C13" s="4" t="s">
         <v>50</v>
       </c>
@@ -3159,7 +3301,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" s="4" t="s">
         <v>53</v>
       </c>
@@ -3179,7 +3321,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C15" s="4" t="s">
         <v>56</v>
       </c>
@@ -3199,7 +3341,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C16" s="4" t="s">
         <v>59</v>
       </c>
@@ -4240,7 +4382,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xRWeGt8c6m18BzWdJRkUVJjGJgpSigX2NaGSa7RmspOGGkfFKBYAyTdvodIOyB0dGxkcJvfkbL3SogjmUq7sJw==" saltValue="DMloE7JNnsAeNysi+8XQWA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="yt3JmCZLL06J4LWfDluLfDt9H60k1HM3E6MtkhNCfBPiRKdFLIPtfe4gII4Kt4/BI3NztxVPkVtNK8QUhRcDsQ==" saltValue="8vM1gkz23D5R01Y+QDmc3g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/formatos/primer_semestre.xlsx
+++ b/formatos/primer_semestre.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DOCUMENTOS CSEIIO\PARA SISE\PLANTILLA PARA SUBIR CALIFICACIONES\PARA PLANTILLA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\cseiio\formatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325D6FAC-B34F-429B-8A88-54A1BF298CB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="CALIFICACIONES" sheetId="2" r:id="rId1"/>
@@ -1060,7 +1059,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2209,14 +2208,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="14" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2416,11 +2415,11 @@
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="13" t="str">
-        <f>IF($E15="","",IF($C$7="",IF(SUM($C15:$E15)/3&lt;6,5,ROUND(SUM($C15:$E15)/3,0)),"/"))</f>
+        <f t="shared" ref="F15:F27" si="0">IF($E15="","",IF($C$7="",IF(SUM($C15:$E15)/3&lt;6,5,ROUND(SUM($C15:$E15)/3,0)),"/"))</f>
         <v/>
       </c>
       <c r="G15" s="38" t="str">
-        <f t="shared" ref="G15:G27" si="0">IF($F15&lt;=5,"/","")</f>
+        <f t="shared" ref="G15:G27" si="1">IF($F15&lt;=5,"/","")</f>
         <v/>
       </c>
       <c r="H15" s="14" t="str">
@@ -2444,15 +2443,15 @@
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="13" t="str">
-        <f>IF($E16="","",IF($C$7="",IF(SUM($C16:$E16)/3&lt;6,5,ROUND(SUM($C16:$E16)/3,0)),"/"))</f>
-        <v/>
-      </c>
-      <c r="G16" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="G16" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="H16" s="14" t="str">
-        <f t="shared" ref="H16:H27" si="1">IF($G16="","",IF($F16="/","/",IF($F16=5,5,IF($G16="/",5,IF(SUM($F16:$G16)/2&lt;6,5,ROUND(SUM($F16:$G16)/2,0))))))</f>
+        <f t="shared" ref="H16:H27" si="2">IF($G16="","",IF($F16="/","/",IF($F16=5,5,IF($G16="/",5,IF(SUM($F16:$G16)/2&lt;6,5,ROUND(SUM($F16:$G16)/2,0))))))</f>
         <v/>
       </c>
       <c r="I16" s="21"/>
@@ -2472,15 +2471,15 @@
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="13" t="str">
-        <f>IF($E17="","",IF($C$7="",IF(SUM($C17:$E17)/3&lt;6,5,ROUND(SUM($C17:$E17)/3,0)),"/"))</f>
-        <v/>
-      </c>
-      <c r="G17" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="G17" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="H17" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I17" s="21"/>
@@ -2500,15 +2499,15 @@
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="13" t="str">
-        <f>IF($E18="","",IF($C$7="",IF(SUM($C18:$E18)/3&lt;6,5,ROUND(SUM($C18:$E18)/3,0)),"/"))</f>
-        <v/>
-      </c>
-      <c r="G18" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="G18" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="H18" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I18" s="21"/>
@@ -2528,15 +2527,15 @@
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="13" t="str">
-        <f>IF($E19="","",IF($C$7="",IF(SUM($C19:$E19)/3&lt;6,5,ROUND(SUM($C19:$E19)/3,0)),"/"))</f>
-        <v/>
-      </c>
-      <c r="G19" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="G19" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="H19" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I19" s="21"/>
@@ -2556,15 +2555,15 @@
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="13" t="str">
-        <f>IF($E20="","",IF($C$7="",IF(SUM($C20:$E20)/3&lt;6,5,ROUND(SUM($C20:$E20)/3,0)),"/"))</f>
-        <v/>
-      </c>
-      <c r="G20" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="G20" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="H20" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I20" s="21"/>
@@ -2584,15 +2583,15 @@
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="13" t="str">
-        <f>IF($E21="","",IF($C$7="",IF(SUM($C21:$E21)/3&lt;6,5,ROUND(SUM($C21:$E21)/3,0)),"/"))</f>
-        <v/>
-      </c>
-      <c r="G21" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="G21" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="H21" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I21" s="21"/>
@@ -2612,15 +2611,15 @@
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="13" t="str">
-        <f>IF($E22="","",IF($C$7="",IF(SUM($C22:$E22)/3&lt;6,5,ROUND(SUM($C22:$E22)/3,0)),"/"))</f>
-        <v/>
-      </c>
-      <c r="G22" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="G22" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="H22" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I22" s="21"/>
@@ -2640,15 +2639,15 @@
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="13" t="str">
-        <f>IF($E23="","",IF($C$7="",IF(SUM($C23:$E23)/3&lt;6,5,ROUND(SUM($C23:$E23)/3,0)),"/"))</f>
-        <v/>
-      </c>
-      <c r="G23" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="G23" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="H23" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I23" s="21"/>
@@ -2668,15 +2667,15 @@
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="13" t="str">
-        <f>IF($E24="","",IF($C$7="",IF(SUM($C24:$E24)/3&lt;6,5,ROUND(SUM($C24:$E24)/3,0)),"/"))</f>
-        <v/>
-      </c>
-      <c r="G24" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="G24" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="H24" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I24" s="21"/>
@@ -2696,15 +2695,15 @@
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="13" t="str">
-        <f>IF($E25="","",IF($C$7="",IF(SUM($C25:$E25)/3&lt;6,5,ROUND(SUM($C25:$E25)/3,0)),"/"))</f>
-        <v/>
-      </c>
-      <c r="G25" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="G25" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="H25" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I25" s="21"/>
@@ -2724,15 +2723,15 @@
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="13" t="str">
-        <f>IF($E26="","",IF($C$7="",IF(SUM($C26:$E26)/3&lt;6,5,ROUND(SUM($C26:$E26)/3,0)),"/"))</f>
-        <v/>
-      </c>
-      <c r="G26" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="G26" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="H26" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I26" s="21"/>
@@ -2752,15 +2751,15 @@
       <c r="D27" s="36"/>
       <c r="E27" s="36"/>
       <c r="F27" s="13" t="str">
-        <f>IF($E27="","",IF($C$7="",IF(SUM($C27:$E27)/3&lt;6,5,ROUND(SUM($C27:$E27)/3,0)),"/"))</f>
-        <v/>
-      </c>
-      <c r="G27" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="G27" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="H27" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I27" s="22"/>
@@ -2770,7 +2769,7 @@
       <c r="M27" s="20"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FoA9984b8E2pxnas7yoBpwJvKy3z0VuIFkzbtdCLGX94Qt6YwZSXH0QZb0a9+VoRrO8AoubitdNIOlAICnNnMA==" saltValue="Pt9Gvd0dkItXA+EyqBSQzw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="cOyBWacEZUf4GruBZ8wY5dFy7wGg9q3EAEcWTUu6rPM2epIZQbyTXA9cd//6DfQEFBtk90+ZqSwki6/0xq6jPg==" saltValue="UvzFJI3ZEcVaV5Y8zIHOyw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="17">
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="A12:A14"/>
@@ -2795,61 +2794,61 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="10">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>CATALOGOS!$C$2:$C$49</xm:f>
           </x14:formula1>
           <xm:sqref>B2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>CATALOGOS!$D$2:$D$3</xm:f>
+            <xm:f>CATALOGOS!$D$2:$D$5</xm:f>
           </x14:formula1>
           <xm:sqref>B3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>CATALOGOS!$B$2:$B$5</xm:f>
           </x14:formula1>
           <xm:sqref>B6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>CATALOGOS!$I$2:$I$8</xm:f>
           </x14:formula1>
           <xm:sqref>C15:E27 I15:I27</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>CATALOGOS!$K$2:$K$21</xm:f>
           </x14:formula1>
           <xm:sqref>J15:J27</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>CATALOGOS!$L$2:$L$5</xm:f>
           </x14:formula1>
           <xm:sqref>K15:K27</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>CATALOGOS!$M$2:$M$32</xm:f>
           </x14:formula1>
           <xm:sqref>L15:L27</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mensaje de error" error="No puede ingresar alguna calificación debido a que la materia ha sido reprobada." xr:uid="{00000000-0002-0000-0000-000007000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mensaje de error" error="No puede ingresar alguna calificación debido a que la materia ha sido reprobada.">
           <x14:formula1>
             <xm:f>IF($F15&gt;=6,CATALOGOS!$I$2:$I$8,CATALOGOS!$I$2:$I$2)</xm:f>
           </x14:formula1>
           <xm:sqref>G15:G27</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000008000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>CATALOGOS!$J$2:$J$22</xm:f>
           </x14:formula1>
           <xm:sqref>K10</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1B2A07CC-5F10-4B3E-8061-8640BCFA6177}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>CATALOGOS!$O$2:$O$3</xm:f>
           </x14:formula1>
@@ -2862,10 +2861,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O121"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
